--- a/document/co_so_du_lieu_nhom_31.xlsx
+++ b/document/co_so_du_lieu_nhom_31.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\laragon\www\J2School-main\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\laragon\www\J2School\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB67240C-53CF-426B-80DA-8FFF0B6B45D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206817F4-BA11-4291-B7A0-BE7EA4EB04D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="768" windowWidth="16584" windowHeight="10956" xr2:uid="{74463A8A-8549-43CD-9702-C9EAFB65584C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{74463A8A-8549-43CD-9702-C9EAFB65584C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,16 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
-  <si>
-    <t>manufacturers</t>
-  </si>
-  <si>
-    <t>id </t>
-  </si>
-  <si>
-    <t>name </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
   <si>
     <t>address</t>
   </si>
@@ -57,9 +48,6 @@
     <t>products</t>
   </si>
   <si>
-    <t xml:space="preserve">id </t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -69,39 +57,18 @@
     <t>price</t>
   </si>
   <si>
-    <t>manufacturer_id </t>
-  </si>
-  <si>
     <t>customers</t>
   </si>
   <si>
     <t>gender</t>
   </si>
   <si>
-    <t>date_of_birth</t>
-  </si>
-  <si>
-    <t>email </t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
-    <t>customer_id </t>
-  </si>
-  <si>
-    <t>product_id </t>
-  </si>
-  <si>
-    <t>carts</t>
-  </si>
-  <si>
-    <t>admins</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -117,23 +84,146 @@
     <t>order_time</t>
   </si>
   <si>
-    <t>receiver_name</t>
-  </si>
-  <si>
-    <t>receiver_phone</t>
-  </si>
-  <si>
-    <t>receiver_address</t>
-  </si>
-  <si>
     <t>note</t>
+  </si>
+  <si>
+    <t>admin_id</t>
+  </si>
+  <si>
+    <t>activity</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>object_name</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Activities</t>
+  </si>
+  <si>
+    <t>Int primary key</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>Varchar(50)</t>
+  </si>
+  <si>
+    <t>Varchar(250)</t>
+  </si>
+  <si>
+    <t>Timestamp CURRENT_TIMESTAMP</t>
+  </si>
+  <si>
+    <t>Admins</t>
+  </si>
+  <si>
+    <t>Int primary key auto increment</t>
+  </si>
+  <si>
+    <t>Varchar(200)</t>
+  </si>
+  <si>
+    <t>Varchar(200) unique</t>
+  </si>
+  <si>
+    <t>Mediumtext</t>
+  </si>
+  <si>
+    <t>Tinyint(1)</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>receivers</t>
+  </si>
+  <si>
+    <t>customer_id</t>
+  </si>
+  <si>
+    <t>Int foreigner key(customers.id)</t>
+  </si>
+  <si>
+    <t>Varchar(20)</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Varchar(15)</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> manufacturers</t>
+  </si>
+  <si>
+    <t>manufacturer_id</t>
+  </si>
+  <si>
+    <t>Int foreigner key(manufacturers.id)</t>
+  </si>
+  <si>
+    <t>types</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>product_id</t>
+  </si>
+  <si>
+    <t>Int foreigner key(products.id)</t>
+  </si>
+  <si>
+    <t>type_id</t>
+  </si>
+  <si>
+    <t>Int foreigner key(types.id)</t>
+  </si>
+  <si>
+    <t>receiver_id</t>
+  </si>
+  <si>
+    <t>Int foreigner key(receivers.id)</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>receipt_detail</t>
+  </si>
+  <si>
+    <t>receipt_id</t>
+  </si>
+  <si>
+    <t>Int foreigner key(receipts.id)</t>
+  </si>
+  <si>
+    <t>Tinyint</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,21 +237,6 @@
       <color rgb="FF444444"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -179,11 +254,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -194,7 +268,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -202,21 +276,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -529,180 +661,437 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9351AF5D-E696-4F88-B233-01071196C1CA}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" customWidth="1"/>
+    <col min="8" max="8" width="32.77734375" customWidth="1"/>
+    <col min="11" max="11" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="G1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="H4" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="G10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="J10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" ht="108.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="H14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="H15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="J18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="K21" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G23" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="1" t="s">
+      <c r="H23" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="25" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G10:H10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
